--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Export this as TSV" sheetId="1" r:id="rId1"/>
+    <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
     <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
     <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
     <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
@@ -830,7 +830,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -916,44 +919,44 @@
     </row>
   </sheetData>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="I2:I1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: NanoDESI / NanoPOTS." sqref="J2:J1048576">
       <formula1>'assay_type list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: metabolites_and_lipids." sqref="K2:K1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="O2:O1048576">
       <formula1>'ms_source list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="P2:P1048576">
       <formula1>'polarity list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Q2:Q1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="R2:R1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="T2:T1048576">
       <formula1>'resolution_x_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="U2:U1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="V2:V1048576">
       <formula1>'resolution_y_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -269,7 +269,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The width of a pixel</t>
+          <t>The width of a pixel.</t>
         </r>
       </text>
     </comment>
@@ -282,7 +282,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The unit of measurement of the width of a pixel</t>
+          <t>The unit of measurement of the width of a pixel.</t>
         </r>
       </text>
     </comment>
@@ -308,7 +308,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The unit of measurement of the height of a pixel</t>
+          <t>The unit of measurement of the height of a pixel.</t>
         </r>
       </text>
     </comment>

--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -191,7 +191,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>An acquisition instrument is the device that contains the signal detection hardware and signal processing software. Assays generate signals such as light of various intensities or color or signals representing the molecular mass</t>
+          <t>An acquisition instrument is the device that contains the signal detection hardware and signal processing software. Assays generate signals such as light of various intensities or color or signals representing the molecular mass.</t>
         </r>
       </text>
     </comment>
@@ -204,7 +204,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(version) Manufacturers of an acquisition instrument may offer various versions (models) of that instrument with different features or sensitivities. Differences in features of sensitivities may be relevant to processing or interpretation of the data.</t>
+          <t>Manufacturers of an acquisition instrument may offer various versions (models) of that instrument with different features or sensitivities. Differences in features or sensitivities may be relevant to processing or interpretation of the data.</t>
         </r>
       </text>
     </comment>

--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="ms_source list" sheetId="5" r:id="rId5"/>
-    <sheet name="polarity list" sheetId="6" r:id="rId6"/>
-    <sheet name="resolution_x_unit list" sheetId="7" r:id="rId7"/>
-    <sheet name="resolution_y_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="ms_source list" sheetId="6" r:id="rId6"/>
+    <sheet name="polarity list" sheetId="7" r:id="rId7"/>
+    <sheet name="resolution_x_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="resolution_y_unit list" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -35,11 +36,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Current version of metadata schema. Template provides the correct value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -338,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +383,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -828,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -837,109 +857,111 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="I2:I1048576">
+  <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="J2:J1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: NanoDESI / NanoPOTS." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: NanoDESI / NanoPOTS." sqref="K2:K1048576">
       <formula1>'assay_type list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: metabolites_and_lipids." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: metabolites_and_lipids." sqref="L2:L1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="M2:M1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="P2:P1048576">
       <formula1>'ms_source list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="Q2:Q1048576">
       <formula1>'polarity list'!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Q2:Q1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="R2:R1048576">
       <formula1>-1e+307</formula1>
@@ -949,14 +971,18 @@
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="T2:T1048576">
-      <formula1>'resolution_x_unit list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="U2:U1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="T2:T1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="V2:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="U2:U1048576">
+      <formula1>'resolution_x_unit list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="V2:V1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="W2:W1048576">
       <formula1>'resolution_y_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -975,7 +1001,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -984,6 +1010,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -993,12 +1037,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +1050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1016,45 +1060,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1072,27 +1078,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1108,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1110,12 +1116,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1133,12 +1154,35 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>donor_id</t>
   </si>
@@ -444,6 +444,12 @@
   </si>
   <si>
     <t>polarity</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
   </si>
   <si>
     <t>mz_range_low_value</t>
@@ -887,34 +893,34 @@
         <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -934,8 +940,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="O2:O1048576">
       <formula1>'ms_source list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="P2:P1048576">
-      <formula1>'polarity list'!$A$1:$A$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Positive / Negative." sqref="P2:P1048576">
+      <formula1>'polarity list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Q2:Q1048576">
       <formula1>-1e+307</formula1>
@@ -1064,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1072,27 +1078,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1110,12 +1101,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1133,12 +1124,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="ms_source list" sheetId="5" r:id="rId5"/>
-    <sheet name="polarity list" sheetId="6" r:id="rId6"/>
-    <sheet name="resolution_x_unit list" sheetId="7" r:id="rId7"/>
-    <sheet name="resolution_y_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="ms_source list" sheetId="6" r:id="rId6"/>
+    <sheet name="polarity list" sheetId="7" r:id="rId7"/>
+    <sheet name="resolution_x_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="resolution_y_unit list" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -35,11 +36,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Version of the schema to use when validating this metadata.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-text description of this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -338,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +396,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -834,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -843,126 +879,135 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="I2:I1048576">
+  <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: NanoDESI / NanoPOTS." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: NanoDESI / NanoPOTS." sqref="L2:L1048576">
       <formula1>'assay_type list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: metabolites_and_lipids." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: metabolites_and_lipids." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="Q2:Q1048576">
       <formula1>'ms_source list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Positive / Negative." sqref="P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Positive / Negative." sqref="R2:R1048576">
       <formula1>'polarity list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Q2:Q1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="R2:R1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="T2:T1048576">
-      <formula1>'resolution_x_unit list'!$A$1:$A$2</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="T2:T1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="U2:U1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="V2:V1048576">
+      <formula1>'resolution_x_unit list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="W2:W1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="X2:X1048576">
       <formula1>'resolution_y_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -981,7 +1026,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -990,6 +1035,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -999,12 +1062,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1022,7 +1085,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1030,7 +1093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1040,49 +1103,26 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1101,12 +1141,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1124,12 +1164,35 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>version</t>
   </si>
@@ -438,9 +438,6 @@
   </si>
   <si>
     <t>assay_type</t>
-  </si>
-  <si>
-    <t>NanoDESI</t>
   </si>
   <si>
     <t>NanoPOTS</t>
@@ -917,52 +914,52 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -973,8 +970,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: NanoDESI / NanoPOTS." sqref="L2:L1048576">
-      <formula1>'assay_type list'!$A$1:$A$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: NanoPOTS." sqref="L2:L1048576">
+      <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: metabolites_and_lipids." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
@@ -1054,7 +1051,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1063,11 +1060,6 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1103,27 +1095,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1141,12 +1133,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1164,12 +1156,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1187,12 +1179,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>version</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>assay_type</t>
+  </si>
+  <si>
+    <t>NanoDESI</t>
   </si>
   <si>
     <t>NanoPOTS</t>
@@ -914,52 +917,52 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -970,8 +973,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: NanoPOTS." sqref="L2:L1048576">
-      <formula1>'assay_type list'!$A$1:$A$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: NanoDESI / NanoPOTS." sqref="L2:L1048576">
+      <formula1>'assay_type list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: metabolites_and_lipids." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
@@ -1051,7 +1054,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1060,6 +1063,11 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1085,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1095,27 +1103,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1133,12 +1141,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1156,12 +1164,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1179,12 +1187,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -205,7 +205,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>

--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -270,7 +270,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A number representing the mass:charge ratio</t>
+          <t>The low value of the scanned mass range for MS1. (unitless)</t>
         </r>
       </text>
     </comment>
@@ -283,7 +283,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A number representing the mass:charge ratio</t>
+          <t>The high value of the scanned mass range for MS1. (unitless)</t>
         </r>
       </text>
     </comment>
@@ -482,10 +482,10 @@
     <t>polarity</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Negative</t>
+    <t>negative ion mode</t>
+  </si>
+  <si>
+    <t>positive ion mode</t>
   </si>
   <si>
     <t>mz_range_low_value</t>
@@ -985,7 +985,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="Q2:Q1048576">
       <formula1>'ms_source list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Positive / Negative." sqref="R2:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode." sqref="R2:R1048576">
       <formula1>'polarity list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">

--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -205,7 +205,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>
@@ -270,7 +270,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A number representing the mass:charge ratio</t>
+          <t>The low value of the scanned mass range for MS1. (unitless)</t>
         </r>
       </text>
     </comment>
@@ -283,7 +283,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A number representing the mass:charge ratio</t>
+          <t>The high value of the scanned mass range for MS1. (unitless)</t>
         </r>
       </text>
     </comment>
@@ -482,10 +482,10 @@
     <t>polarity</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Negative</t>
+    <t>negative ion mode</t>
+  </si>
+  <si>
+    <t>positive ion mode</t>
   </si>
   <si>
     <t>mz_range_low_value</t>
@@ -985,7 +985,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="Q2:Q1048576">
       <formula1>'ms_source list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Positive / Negative." sqref="R2:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode." sqref="R2:R1048576">
       <formula1>'polarity list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">

--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -12,10 +12,11 @@
     <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
     <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
-    <sheet name="ms_source list" sheetId="6" r:id="rId6"/>
-    <sheet name="polarity list" sheetId="7" r:id="rId7"/>
-    <sheet name="resolution_x_unit list" sheetId="8" r:id="rId8"/>
-    <sheet name="resolution_y_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="is_targeted list" sheetId="6" r:id="rId6"/>
+    <sheet name="ms_source list" sheetId="7" r:id="rId7"/>
+    <sheet name="polarity list" sheetId="8" r:id="rId8"/>
+    <sheet name="resolution_x_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="resolution_y_unit list" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -396,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>version</t>
   </si>
@@ -453,6 +454,12 @@
   </si>
   <si>
     <t>is_targeted</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
   <si>
     <t>acquisition_instrument_vendor</t>
@@ -923,46 +930,46 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -979,8 +986,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: metabolites_and_lipids." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TRUE / FALSE." sqref="N2:N1048576">
+      <formula1>'is_targeted list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="Q2:Q1048576">
       <formula1>'ms_source list'!$A$1:$A$5</formula1>
@@ -1016,6 +1023,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
@@ -1095,6 +1125,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1103,50 +1156,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1164,12 +1194,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1187,12 +1217,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -166,7 +166,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Each assay is placed into one of the following 3 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, and determination of nucleotide sequence.</t>
+          <t>Each assay is placed into one of the following 4 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, imaging mass spectrometry, and determination of nucleotide sequence.</t>
         </r>
       </text>
     </comment>

--- a/docs/nano/nano-metadata.xlsx
+++ b/docs/nano/nano-metadata.xlsx
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>version</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>positive ion mode</t>
+  </si>
+  <si>
+    <t>negative and positive ion mode</t>
   </si>
   <si>
     <t>mz_range_low_value</t>
@@ -935,34 +938,34 @@
         <v>27</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -985,8 +988,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="Q2:Q1048576">
       <formula1>'ms_source list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode." sqref="R2:R1048576">
-      <formula1>'polarity list'!$A$1:$A$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode / negative and positive ion mode." sqref="R2:R1048576">
+      <formula1>'polarity list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">
       <formula1>-1e+307</formula1>
@@ -1133,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1147,6 +1150,11 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1164,12 +1172,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1187,12 +1195,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
